--- a/data/mlm_data.xlsx
+++ b/data/mlm_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/dissertation_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F5705D5-C163-7B49-A3C4-D6028A92B662}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEAEB37-396B-D745-BD50-5D405C771339}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15260" xr2:uid="{A2954904-FE6B-794F-8201-E4D2D985812D}"/>
+    <workbookView xWindow="1180" yWindow="1440" windowWidth="27240" windowHeight="15260" xr2:uid="{A2954904-FE6B-794F-8201-E4D2D985812D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2478495-B194-EF45-B0E2-3DE3F242335F}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1330,7 +1330,7 @@
         <v>13</v>
       </c>
       <c r="C40" s="1">
-        <v>66</v>
+        <v>62.5</v>
       </c>
       <c r="D40">
         <v>1</v>
